--- a/medicine/Handicap/Scatman_John/Scatman_John.xlsx
+++ b/medicine/Handicap/Scatman_John/Scatman_John.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scatman John, de son vrai nom John Paul Larkin, est un chanteur et pianiste américain né le 13 mars 1942 à El Monte (Californie) et mort le 3 décembre 1999 à Los Angeles. Il a reçu à sa mort le surnom de King of Scat (Roi du Scat).
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Paul Larkin naît à El Monte. Il souffre de bégaiement « depuis qu’il a commencé à parler ». Même à l’apogée de sa carrière, en 1995, les journalistes disaient qu’il finissait difficilement une phrase « sans la répéter 6 ou 7 fois ». À l’âge de 12 ans, il apprend le piano, et à 14, à chanter le scat.
 Il se cache derrière son piano pour, selon lui, dissimuler sa peur de parler, jusqu’au jour où il découvre que son handicap lui permet certaines prouesses vocales.
@@ -521,7 +535,7 @@
 En 1996, Larkin est définitivement étiqueté artiste de Dance Machine, ou dance, par la critique musicale. La même année, Larkin se rendra compte que sa carrière de jazzman, c'est-à-dire toute sa carrière musicale entre 1964 et 1990, ne sera pas prise en compte, comme "oubliée" des producteurs : on refusera à Larkin de sortir un album de ses compositions jazzies durant la même période. Ceci le blessera beaucoup, car il souhaitait vivement faire savoir qu'il était avant tout, et surtout, un musicien de jazz et un jazzman.      
 En 1999, Scatman John sort son troisième et dernier album Take Your Time alors qu’il se sent déjà atteint par la maladie.
 Il meurt des suites d’un cancer du poumon, le 3 décembre 1999, dans sa maison, à Los Angeles, dans les bras de sa compagne, Judy. Son corps est incinéré et ses cendres dispersées au-dessus de l'océan près de Malibu. En 2002, une compilation de ses meilleurs titres lui rend un dernier hommage.
-L’homme au chapeau mou a également fondé la Scatland Foundation, association à but non lucratif de soutien en faveur des bègues[1],[2].
+L’homme au chapeau mou a également fondé la Scatland Foundation, association à but non lucratif de soutien en faveur des bègues,.
 </t>
         </is>
       </c>
@@ -552,15 +566,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums studio
-1995 : Scatman’s World
+          <t>Albums studio</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1995 : Scatman’s World
 1996 : Everybody Jam!
-1998: Take Your Time
-Compilation
-2002 : Listen to the Scatman
-2002 : The Best of Scatman John
-Singles
-1995 : Scatman (Ski Ba Bop Ba Dop Bop)
+1998: Take Your Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Scatman_John</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scatman_John</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Compilation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2002 : Listen to the Scatman
+2002 : The Best of Scatman John</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Scatman_John</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scatman_John</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Singles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 : Scatman (Ski Ba Bop Ba Dop Bop)
 1995 : Scatman's World
 1995 : Song of Scatland
 1995 : Only You
